--- a/outputs/density_geounits/summary_stats_Madrid.xlsx
+++ b/outputs/density_geounits/summary_stats_Madrid.xlsx
@@ -762,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,11 +793,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>population</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5279092</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>density</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3902.031942095055</v>
       </c>
     </row>
   </sheetData>
